--- a/data.xlsx
+++ b/data.xlsx
@@ -453,34 +453,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Jane</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MH18EQ0001</t>
+          <t>KL07AH9981</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Los Angeles</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jane</t>
+          <t>John</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>KL07AH9981</t>
+          <t>MH18EQ0001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>New York</t>
         </is>
       </c>
     </row>
